--- a/client_data_new.xlsx
+++ b/client_data_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K297"/>
+  <dimension ref="A1:K298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10489,6 +10489,37 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/client_data_new.xlsx
+++ b/client_data_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K297"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10489,6 +10489,254 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>алекс тест</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>город тест</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>авто тест</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>алекс тест</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>город тест</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>имя тест</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>город тест</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>авто777</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>имя тест</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>город тест</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>ntcn</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>ntcn</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>ntcn</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>ntcn</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>ntcn</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>тесТ</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>теСт</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="n">
+        <v>1794467090</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>qwertywebstudio</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>тесТ</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
